--- a/docs/gantt_schedule.xlsx
+++ b/docs/gantt_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Desktop\side_projects\rover\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0647CA8-315C-41B2-85FC-4FC86A6894BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ADE2D-B7D8-431E-9BE4-F3111C493262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-86520" yWindow="60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,6 +945,12 @@
     <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -956,12 +962,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1523,7 +1523,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,27 +1549,27 @@
       <c r="F1" s="86"/>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="103" t="str">
+      <c r="J1" s="105" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How to Make a Gantt Chart in Excel")</f>
         <v>► Watch How to Make a Gantt Chart in Excel</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
     </row>
     <row r="2" spans="1:78" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
@@ -1578,10 +1578,10 @@
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="104">
+      <c r="E2" s="100">
         <v>45997</v>
       </c>
-      <c r="F2" s="105"/>
+      <c r="F2" s="101"/>
     </row>
     <row r="3" spans="1:78" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -1590,11 +1590,11 @@
       <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="104">
+      <c r="E3" s="100">
         <f ca="1">TODAY()</f>
         <v>45998</v>
       </c>
-      <c r="F3" s="105"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:78" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
@@ -1603,106 +1603,106 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="100">
+      <c r="I4" s="102">
         <f>I5</f>
         <v>45992</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="100">
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="102">
         <f>P5</f>
         <v>45999</v>
       </c>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="100">
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="102">
         <f>W5</f>
         <v>46006</v>
       </c>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="100">
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="102">
         <f>AD5</f>
         <v>46013</v>
       </c>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="100">
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="102">
         <f>AK5</f>
         <v>46020</v>
       </c>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="100">
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="102">
         <f>AR5</f>
         <v>46027</v>
       </c>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="100">
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="102">
         <f>AY5</f>
         <v>46034</v>
       </c>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="100">
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="102">
         <f>BF5</f>
         <v>46041</v>
       </c>
-      <c r="BG4" s="101"/>
-      <c r="BH4" s="101"/>
-      <c r="BI4" s="101"/>
-      <c r="BJ4" s="101"/>
-      <c r="BK4" s="101"/>
-      <c r="BL4" s="102"/>
-      <c r="BM4" s="100">
+      <c r="BG4" s="103"/>
+      <c r="BH4" s="103"/>
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="103"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="102">
         <f>BM5</f>
         <v>46048</v>
       </c>
-      <c r="BN4" s="101"/>
-      <c r="BO4" s="101"/>
-      <c r="BP4" s="101"/>
-      <c r="BQ4" s="101"/>
-      <c r="BR4" s="101"/>
-      <c r="BS4" s="102"/>
-      <c r="BT4" s="100">
+      <c r="BN4" s="103"/>
+      <c r="BO4" s="103"/>
+      <c r="BP4" s="103"/>
+      <c r="BQ4" s="103"/>
+      <c r="BR4" s="103"/>
+      <c r="BS4" s="104"/>
+      <c r="BT4" s="102">
         <f>BT5</f>
         <v>46055</v>
       </c>
-      <c r="BU4" s="101"/>
-      <c r="BV4" s="101"/>
-      <c r="BW4" s="101"/>
-      <c r="BX4" s="101"/>
-      <c r="BY4" s="101"/>
-      <c r="BZ4" s="102"/>
+      <c r="BU4" s="103"/>
+      <c r="BV4" s="103"/>
+      <c r="BW4" s="103"/>
+      <c r="BX4" s="103"/>
+      <c r="BY4" s="103"/>
+      <c r="BZ4" s="104"/>
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="33">
         <v>45997</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="32">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="33">
         <v>46005</v>
@@ -4974,12 +4974,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="J1:AA1"/>
@@ -4987,6 +4981,12 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="12">

--- a/docs/gantt_schedule.xlsx
+++ b/docs/gantt_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29608"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Desktop\side_projects\rover\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ADE2D-B7D8-431E-9BE4-F3111C493262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4022703D-2828-4B3B-A1E8-0EFFB7C7984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86520" yWindow="60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>© 2018-2019 Vertex42 LLC</t>
   </si>
   <si>
-    <t>Rover Project</t>
-  </si>
-  <si>
     <t>ReyMex</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Publishing</t>
+  </si>
+  <si>
+    <t>DirtNav</t>
   </si>
 </sst>
 </file>
@@ -945,12 +945,6 @@
     <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -962,6 +956,12 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1523,25 +1523,25 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="78" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.68359375" customWidth="1"/>
+    <col min="2" max="2" width="19.83984375" customWidth="1"/>
+    <col min="3" max="3" width="9.15625" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="5" max="5" width="10.41796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.41796875" customWidth="1"/>
+    <col min="7" max="7" width="2.68359375" customWidth="1"/>
+    <col min="8" max="8" width="6.15625" hidden="1" customWidth="1"/>
+    <col min="9" max="78" width="2.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:78" ht="28.2" x14ac:dyDescent="1.05">
       <c r="B1" s="16" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1549,162 +1549,162 @@
       <c r="F1" s="86"/>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="105" t="str">
+      <c r="J1" s="103" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How to Make a Gantt Chart in Excel")</f>
         <v>► Watch How to Make a Gantt Chart in Excel</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-    </row>
-    <row r="2" spans="1:78" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+    </row>
+    <row r="2" spans="1:78" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="100">
+      <c r="E2" s="104">
         <v>45997</v>
       </c>
-      <c r="F2" s="101"/>
-    </row>
-    <row r="3" spans="1:78" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="105"/>
+    </row>
+    <row r="3" spans="1:78" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="100">
+      <c r="E3" s="104">
         <f ca="1">TODAY()</f>
-        <v>45998</v>
-      </c>
-      <c r="F3" s="101"/>
-    </row>
-    <row r="4" spans="1:78" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46002</v>
+      </c>
+      <c r="F3" s="105"/>
+    </row>
+    <row r="4" spans="1:78" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="102">
+      <c r="I4" s="100">
         <f>I5</f>
         <v>45992</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="102">
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="100">
         <f>P5</f>
         <v>45999</v>
       </c>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="102">
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="100">
         <f>W5</f>
         <v>46006</v>
       </c>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="102">
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="100">
         <f>AD5</f>
         <v>46013</v>
       </c>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="102">
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="100">
         <f>AK5</f>
         <v>46020</v>
       </c>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="102">
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="100">
         <f>AR5</f>
         <v>46027</v>
       </c>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="102">
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="100">
         <f>AY5</f>
         <v>46034</v>
       </c>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="102">
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="102"/>
+      <c r="BF4" s="100">
         <f>BF5</f>
         <v>46041</v>
       </c>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="103"/>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="103"/>
-      <c r="BK4" s="103"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="102">
+      <c r="BG4" s="101"/>
+      <c r="BH4" s="101"/>
+      <c r="BI4" s="101"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="101"/>
+      <c r="BL4" s="102"/>
+      <c r="BM4" s="100">
         <f>BM5</f>
         <v>46048</v>
       </c>
-      <c r="BN4" s="103"/>
-      <c r="BO4" s="103"/>
-      <c r="BP4" s="103"/>
-      <c r="BQ4" s="103"/>
-      <c r="BR4" s="103"/>
-      <c r="BS4" s="104"/>
-      <c r="BT4" s="102">
+      <c r="BN4" s="101"/>
+      <c r="BO4" s="101"/>
+      <c r="BP4" s="101"/>
+      <c r="BQ4" s="101"/>
+      <c r="BR4" s="101"/>
+      <c r="BS4" s="102"/>
+      <c r="BT4" s="100">
         <f>BT5</f>
         <v>46055</v>
       </c>
-      <c r="BU4" s="103"/>
-      <c r="BV4" s="103"/>
-      <c r="BW4" s="103"/>
-      <c r="BX4" s="103"/>
-      <c r="BY4" s="103"/>
-      <c r="BZ4" s="104"/>
-    </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BU4" s="101"/>
+      <c r="BV4" s="101"/>
+      <c r="BW4" s="101"/>
+      <c r="BX4" s="101"/>
+      <c r="BY4" s="101"/>
+      <c r="BZ4" s="102"/>
+    </row>
+    <row r="5" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="G5" s="6"/>
       <c r="I5" s="13">
@@ -1988,7 +1988,7 @@
         <v>46061</v>
       </c>
     </row>
-    <row r="6" spans="1:78" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="18"/>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -2290,7 +2290,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -2373,10 +2373,10 @@
       <c r="BY7" s="74"/>
       <c r="BZ7" s="74"/>
     </row>
-    <row r="8" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="18"/>
       <c r="B8" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
@@ -2458,25 +2458,25 @@
       <c r="BY8" s="74"/>
       <c r="BZ8" s="74"/>
     </row>
-    <row r="9" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="18"/>
       <c r="B9" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="33">
         <v>45997</v>
       </c>
       <c r="F9" s="33">
-        <v>46004</v>
+        <v>46002</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="24">
         <f t="shared" si="18"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="74"/>
       <c r="J9" s="74"/>
@@ -2549,10 +2549,10 @@
       <c r="BY9" s="74"/>
       <c r="BZ9" s="74"/>
     </row>
-    <row r="10" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="18"/>
       <c r="B10" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="32">
@@ -2640,10 +2640,10 @@
       <c r="BY10" s="74"/>
       <c r="BZ10" s="74"/>
     </row>
-    <row r="11" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="18"/>
       <c r="B11" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="32">
@@ -2731,10 +2731,10 @@
       <c r="BY11" s="74"/>
       <c r="BZ11" s="74"/>
     </row>
-    <row r="12" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="18"/>
       <c r="B12" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="36"/>
@@ -2816,10 +2816,10 @@
       <c r="BY12" s="74"/>
       <c r="BZ12" s="74"/>
     </row>
-    <row r="13" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="18"/>
       <c r="B13" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="41">
@@ -2907,10 +2907,10 @@
       <c r="BY13" s="74"/>
       <c r="BZ13" s="74"/>
     </row>
-    <row r="14" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="18"/>
       <c r="B14" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="41">
@@ -2998,10 +2998,10 @@
       <c r="BY14" s="74"/>
       <c r="BZ14" s="74"/>
     </row>
-    <row r="15" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="18"/>
       <c r="B15" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="41">
@@ -3089,10 +3089,10 @@
       <c r="BY15" s="74"/>
       <c r="BZ15" s="74"/>
     </row>
-    <row r="16" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="18"/>
       <c r="B16" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="41">
@@ -3177,10 +3177,10 @@
       <c r="BY16" s="74"/>
       <c r="BZ16" s="74"/>
     </row>
-    <row r="17" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="18"/>
       <c r="B17" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="46"/>
@@ -3262,10 +3262,10 @@
       <c r="BY17" s="74"/>
       <c r="BZ17" s="74"/>
     </row>
-    <row r="18" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="18"/>
       <c r="B18" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="51">
@@ -3353,10 +3353,10 @@
       <c r="BY18" s="74"/>
       <c r="BZ18" s="74"/>
     </row>
-    <row r="19" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="18"/>
       <c r="B19" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="51">
@@ -3441,10 +3441,10 @@
       <c r="BY19" s="74"/>
       <c r="BZ19" s="74"/>
     </row>
-    <row r="20" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="18"/>
       <c r="B20" s="49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="51">
@@ -3532,10 +3532,10 @@
       <c r="BY20" s="74"/>
       <c r="BZ20" s="74"/>
     </row>
-    <row r="21" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="18"/>
       <c r="B21" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="51">
@@ -3623,10 +3623,10 @@
       <c r="BY21" s="74"/>
       <c r="BZ21" s="74"/>
     </row>
-    <row r="22" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="18"/>
       <c r="B22" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="51">
@@ -3711,10 +3711,10 @@
       <c r="BY22" s="74"/>
       <c r="BZ22" s="74"/>
     </row>
-    <row r="23" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="18"/>
       <c r="B23" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="55"/>
       <c r="D23" s="56"/>
@@ -3796,10 +3796,10 @@
       <c r="BY23" s="74"/>
       <c r="BZ23" s="74"/>
     </row>
-    <row r="24" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="18"/>
       <c r="B24" s="59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="61">
@@ -3887,10 +3887,10 @@
       <c r="BY24" s="74"/>
       <c r="BZ24" s="74"/>
     </row>
-    <row r="25" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="18"/>
       <c r="B25" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="61">
@@ -3978,10 +3978,10 @@
       <c r="BY25" s="74"/>
       <c r="BZ25" s="74"/>
     </row>
-    <row r="26" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="18"/>
       <c r="B26" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="60"/>
       <c r="D26" s="61">
@@ -4069,10 +4069,10 @@
       <c r="BY26" s="74"/>
       <c r="BZ26" s="74"/>
     </row>
-    <row r="27" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="18"/>
       <c r="B27" s="59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="60"/>
       <c r="D27" s="61">
@@ -4160,10 +4160,10 @@
       <c r="BY27" s="74"/>
       <c r="BZ27" s="74"/>
     </row>
-    <row r="28" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="18"/>
       <c r="B28" s="64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="66"/>
@@ -4245,10 +4245,10 @@
       <c r="BY28" s="74"/>
       <c r="BZ28" s="74"/>
     </row>
-    <row r="29" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="18"/>
       <c r="B29" s="69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="70"/>
       <c r="D29" s="71">
@@ -4336,10 +4336,10 @@
       <c r="BY29" s="74"/>
       <c r="BZ29" s="74"/>
     </row>
-    <row r="30" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="18"/>
       <c r="B30" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="70"/>
       <c r="D30" s="71">
@@ -4424,10 +4424,10 @@
       <c r="BY30" s="74"/>
       <c r="BZ30" s="74"/>
     </row>
-    <row r="31" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="18"/>
       <c r="B31" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="70"/>
       <c r="D31" s="71">
@@ -4515,10 +4515,10 @@
       <c r="BY31" s="74"/>
       <c r="BZ31" s="74"/>
     </row>
-    <row r="32" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="18"/>
       <c r="B32" s="69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="70"/>
       <c r="D32" s="71">
@@ -4606,10 +4606,10 @@
       <c r="BY32" s="74"/>
       <c r="BZ32" s="74"/>
     </row>
-    <row r="33" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="18"/>
       <c r="B33" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="70"/>
       <c r="D33" s="71">
@@ -4694,10 +4694,10 @@
       <c r="BY33" s="74"/>
       <c r="BZ33" s="74"/>
     </row>
-    <row r="34" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="18"/>
       <c r="B34" s="95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="97"/>
@@ -4779,20 +4779,20 @@
       <c r="BY34" s="74"/>
       <c r="BZ34" s="74"/>
     </row>
-    <row r="35" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="18"/>
       <c r="B35" s="91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="92"/>
       <c r="D35" s="93">
         <v>0</v>
       </c>
       <c r="E35" s="94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" s="94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="24" t="e">
@@ -4870,20 +4870,20 @@
       <c r="BY35" s="74"/>
       <c r="BZ35" s="74"/>
     </row>
-    <row r="36" spans="1:78" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:78" s="3" customFormat="1" ht="20.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="18"/>
       <c r="B36" s="91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="92"/>
       <c r="D36" s="93">
         <v>0</v>
       </c>
       <c r="E36" s="94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" s="24"/>
       <c r="H36" s="24" t="e">
@@ -4961,19 +4961,25 @@
       <c r="BY36" s="74"/>
       <c r="BZ36" s="74"/>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="89" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="17"/>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="88" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="J1:AA1"/>
@@ -4981,12 +4987,6 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="12">
@@ -5057,103 +5057,103 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.140625" style="76" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.83984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.15625" style="76" customWidth="1"/>
+    <col min="3" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:3" s="78" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:3" s="78" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="77" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="77"/>
     </row>
-    <row r="3" spans="2:3" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="79" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="79"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B4" s="87" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" s="81" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="B6" s="83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" ht="43.2" x14ac:dyDescent="0.5">
       <c r="B7" s="84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" ht="14.4" x14ac:dyDescent="0.5">
       <c r="B8" s="82"/>
     </row>
-    <row r="9" spans="2:3" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" s="81" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="B9" s="83" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" ht="43.2" x14ac:dyDescent="0.5">
       <c r="B10" s="84" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" ht="14.1" x14ac:dyDescent="0.5">
       <c r="B11" s="85" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" ht="14.4" x14ac:dyDescent="0.5">
       <c r="B12" s="82"/>
     </row>
-    <row r="13" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" ht="14.1" x14ac:dyDescent="0.5">
       <c r="B13" s="90" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How This Gantt Chart Was Created")</f>
         <v>► Watch How This Gantt Chart Was Created</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" ht="14.4" x14ac:dyDescent="0.5">
       <c r="B14" s="82"/>
     </row>
-    <row r="15" spans="2:3" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" s="81" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="B15" s="83" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" ht="28.8" x14ac:dyDescent="0.5">
       <c r="B16" s="84" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="14.1" x14ac:dyDescent="0.5">
       <c r="B17" s="85" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.5">
       <c r="B18" s="82"/>
     </row>
-    <row r="19" spans="2:2" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" s="81" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="B19" s="83" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="57.6" x14ac:dyDescent="0.5">
       <c r="B20" s="84" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.5">
       <c r="B21" s="82"/>
     </row>
-    <row r="22" spans="2:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="57.6" x14ac:dyDescent="0.5">
       <c r="B22" s="84" t="s">
         <v>15</v>
       </c>
